--- a/info_excel_three_month.xlsx
+++ b/info_excel_three_month.xlsx
@@ -678,514 +678,454 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="B2" s="2" t="s">
         <v>26</v>
       </c>
+      <c r="C2" t="s">
+        <v>46</v>
+      </c>
       <c r="D2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F2">
+        <v>138376</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E3" t="s">
+        <v>81</v>
+      </c>
+      <c r="F3">
+        <v>120482</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E4" t="s">
+        <v>82</v>
+      </c>
+      <c r="F4">
+        <v>258250</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E5" t="s">
+        <v>83</v>
+      </c>
+      <c r="F5">
+        <v>244941</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" t="s">
+        <v>65</v>
+      </c>
+      <c r="E6" t="s">
+        <v>84</v>
+      </c>
+      <c r="F6">
+        <v>438312</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" t="s">
+        <v>66</v>
+      </c>
+      <c r="E7" t="s">
+        <v>85</v>
+      </c>
+      <c r="F7">
+        <v>835866</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" t="s">
+        <v>67</v>
+      </c>
+      <c r="E8" t="s">
+        <v>86</v>
+      </c>
+      <c r="F8">
+        <v>650000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9" t="s">
+        <v>68</v>
+      </c>
+      <c r="E9" t="s">
+        <v>87</v>
+      </c>
+      <c r="F9">
+        <v>683962</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" t="s">
         <v>46</v>
       </c>
-      <c r="E2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F2" t="s">
-        <v>81</v>
-      </c>
-      <c r="G2">
-        <v>138376</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E3" t="s">
-        <v>62</v>
-      </c>
-      <c r="F3" t="s">
-        <v>81</v>
-      </c>
-      <c r="G3">
-        <v>120482</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" t="s">
-        <v>48</v>
-      </c>
-      <c r="E4" t="s">
-        <v>63</v>
-      </c>
-      <c r="F4" t="s">
-        <v>82</v>
-      </c>
-      <c r="G4">
-        <v>258250</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" t="s">
-        <v>49</v>
-      </c>
-      <c r="E5" t="s">
-        <v>64</v>
-      </c>
-      <c r="F5" t="s">
-        <v>83</v>
-      </c>
-      <c r="G5">
-        <v>244941</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" t="s">
-        <v>50</v>
-      </c>
-      <c r="E6" t="s">
-        <v>65</v>
-      </c>
-      <c r="F6" t="s">
-        <v>84</v>
-      </c>
-      <c r="G6">
-        <v>438312</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" t="s">
-        <v>50</v>
-      </c>
-      <c r="E7" t="s">
-        <v>66</v>
-      </c>
-      <c r="F7" t="s">
-        <v>85</v>
-      </c>
-      <c r="G7">
-        <v>835866</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" t="s">
-        <v>51</v>
-      </c>
-      <c r="E8" t="s">
-        <v>67</v>
-      </c>
-      <c r="F8" t="s">
-        <v>86</v>
-      </c>
-      <c r="G8">
-        <v>650000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D9" t="s">
-        <v>52</v>
-      </c>
-      <c r="E9" t="s">
-        <v>68</v>
-      </c>
-      <c r="F9" t="s">
-        <v>87</v>
-      </c>
-      <c r="G9">
-        <v>683962</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="D10" t="s">
+        <v>69</v>
+      </c>
+      <c r="E10" t="s">
+        <v>88</v>
+      </c>
+      <c r="F10">
+        <v>281426</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" t="s">
+        <v>70</v>
+      </c>
+      <c r="E11" t="s">
+        <v>88</v>
+      </c>
+      <c r="F11">
+        <v>177305</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" t="s">
+        <v>71</v>
+      </c>
+      <c r="E12" t="s">
+        <v>89</v>
+      </c>
+      <c r="F12">
+        <v>369256</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" t="s">
         <v>46</v>
       </c>
-      <c r="E10" t="s">
-        <v>69</v>
-      </c>
-      <c r="F10" t="s">
-        <v>88</v>
-      </c>
-      <c r="G10">
-        <v>281426</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D11" t="s">
-        <v>53</v>
-      </c>
-      <c r="E11" t="s">
-        <v>70</v>
-      </c>
-      <c r="F11" t="s">
-        <v>88</v>
-      </c>
-      <c r="G11">
-        <v>177305</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D12" t="s">
-        <v>54</v>
-      </c>
-      <c r="E12" t="s">
-        <v>71</v>
-      </c>
-      <c r="F12" t="s">
-        <v>89</v>
-      </c>
-      <c r="G12">
-        <v>369256</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="D13" t="s">
-        <v>46</v>
+        <v>72</v>
       </c>
       <c r="E13" t="s">
-        <v>72</v>
-      </c>
-      <c r="F13" t="s">
         <v>90</v>
       </c>
-      <c r="G13">
+      <c r="F13">
         <v>218894</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="B14" s="2" t="s">
         <v>38</v>
       </c>
+      <c r="C14" t="s">
+        <v>55</v>
+      </c>
       <c r="D14" t="s">
+        <v>73</v>
+      </c>
+      <c r="E14" t="s">
+        <v>90</v>
+      </c>
+      <c r="F14">
+        <v>380000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15" t="s">
+        <v>74</v>
+      </c>
+      <c r="E15" t="s">
+        <v>91</v>
+      </c>
+      <c r="F15">
+        <v>230193</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" t="s">
         <v>55</v>
       </c>
-      <c r="E14" t="s">
-        <v>73</v>
-      </c>
-      <c r="F14" t="s">
-        <v>90</v>
-      </c>
-      <c r="G14">
-        <v>380000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D15" t="s">
-        <v>56</v>
-      </c>
-      <c r="E15" t="s">
-        <v>74</v>
-      </c>
-      <c r="F15" t="s">
-        <v>91</v>
-      </c>
-      <c r="G15">
-        <v>230193</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="D16" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="E16" t="s">
-        <v>75</v>
-      </c>
-      <c r="F16" t="s">
         <v>92</v>
       </c>
-      <c r="G16">
+      <c r="F16">
         <v>506651</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="1">
-        <v>15</v>
-      </c>
-      <c r="B17" t="s">
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="B17" s="2" t="s">
         <v>41</v>
       </c>
+      <c r="C17" t="s">
+        <v>57</v>
+      </c>
       <c r="D17" t="s">
+        <v>76</v>
+      </c>
+      <c r="E17" t="s">
+        <v>93</v>
+      </c>
+      <c r="F17">
+        <v>56870</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" t="s">
+        <v>58</v>
+      </c>
+      <c r="D18" t="s">
+        <v>77</v>
+      </c>
+      <c r="E18" t="s">
+        <v>94</v>
+      </c>
+      <c r="F18">
+        <v>240098</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" t="s">
+        <v>59</v>
+      </c>
+      <c r="D19" t="s">
+        <v>78</v>
+      </c>
+      <c r="E19" t="s">
+        <v>95</v>
+      </c>
+      <c r="F19">
+        <v>433739</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" t="s">
+        <v>60</v>
+      </c>
+      <c r="D20" t="s">
+        <v>79</v>
+      </c>
+      <c r="E20" t="s">
+        <v>96</v>
+      </c>
+      <c r="F20">
+        <v>350000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" t="s">
         <v>57</v>
       </c>
-      <c r="E17" t="s">
-        <v>76</v>
-      </c>
-      <c r="F17" t="s">
-        <v>93</v>
-      </c>
-      <c r="G17">
-        <v>56870</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="1">
-        <v>16</v>
-      </c>
-      <c r="B18" t="s">
-        <v>22</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D18" t="s">
-        <v>58</v>
-      </c>
-      <c r="E18" t="s">
-        <v>77</v>
-      </c>
-      <c r="F18" t="s">
-        <v>94</v>
-      </c>
-      <c r="G18">
-        <v>240098</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="1">
-        <v>17</v>
-      </c>
-      <c r="B19" t="s">
-        <v>23</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D19" t="s">
-        <v>59</v>
-      </c>
-      <c r="E19" t="s">
-        <v>78</v>
-      </c>
-      <c r="F19" t="s">
-        <v>95</v>
-      </c>
-      <c r="G19">
-        <v>433739</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="1">
-        <v>18</v>
-      </c>
-      <c r="B20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D20" t="s">
-        <v>60</v>
-      </c>
-      <c r="E20" t="s">
-        <v>79</v>
-      </c>
-      <c r="F20" t="s">
-        <v>96</v>
-      </c>
-      <c r="G20">
-        <v>350000</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="1">
-        <v>19</v>
-      </c>
-      <c r="B21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="D21" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="E21" t="s">
-        <v>80</v>
-      </c>
-      <c r="F21" t="s">
         <v>97</v>
       </c>
-      <c r="G21">
+      <c r="F21">
         <v>323864</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
-    <hyperlink ref="C3" r:id="rId2"/>
-    <hyperlink ref="C4" r:id="rId3"/>
-    <hyperlink ref="C5" r:id="rId4"/>
-    <hyperlink ref="C6" r:id="rId5"/>
-    <hyperlink ref="C7" r:id="rId6"/>
-    <hyperlink ref="C8" r:id="rId7"/>
-    <hyperlink ref="C9" r:id="rId8"/>
-    <hyperlink ref="C10" r:id="rId9"/>
-    <hyperlink ref="C11" r:id="rId10"/>
-    <hyperlink ref="C12" r:id="rId11"/>
-    <hyperlink ref="C13" r:id="rId12"/>
-    <hyperlink ref="C14" r:id="rId13"/>
-    <hyperlink ref="C15" r:id="rId14"/>
-    <hyperlink ref="C16" r:id="rId15"/>
-    <hyperlink ref="C17" r:id="rId16"/>
-    <hyperlink ref="C18" r:id="rId17"/>
-    <hyperlink ref="C19" r:id="rId18"/>
-    <hyperlink ref="C20" r:id="rId19"/>
-    <hyperlink ref="C21" r:id="rId20"/>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
+    <hyperlink ref="B4" r:id="rId3"/>
+    <hyperlink ref="B5" r:id="rId4"/>
+    <hyperlink ref="B6" r:id="rId5"/>
+    <hyperlink ref="B7" r:id="rId6"/>
+    <hyperlink ref="B8" r:id="rId7"/>
+    <hyperlink ref="B9" r:id="rId8"/>
+    <hyperlink ref="B10" r:id="rId9"/>
+    <hyperlink ref="B11" r:id="rId10"/>
+    <hyperlink ref="B12" r:id="rId11"/>
+    <hyperlink ref="B13" r:id="rId12"/>
+    <hyperlink ref="B14" r:id="rId13"/>
+    <hyperlink ref="B15" r:id="rId14"/>
+    <hyperlink ref="B16" r:id="rId15"/>
+    <hyperlink ref="B17" r:id="rId16"/>
+    <hyperlink ref="B18" r:id="rId17"/>
+    <hyperlink ref="B19" r:id="rId18"/>
+    <hyperlink ref="B20" r:id="rId19"/>
+    <hyperlink ref="B21" r:id="rId20"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
